--- a/pre/offers-81/absflex/es/Преленд 2 суставы крем Absolute Flex ES.xlsx
+++ b/pre/offers-81/absflex/es/Преленд 2 суставы крем Absolute Flex ES.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="154">
   <si>
     <t>Crema Absolute Flex | Portal de Drauzio Varella</t>
   </si>
@@ -118,9 +118,6 @@
     <t>el uso de Absolute Flex</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Hasta en casos más graves, cuando el paciente ya no puede moverse sin ayuda,</t>
   </si>
   <si>
@@ -295,10 +292,16 @@
     <t>Pulse sobre la crema para tener un descuento de 50% para la crema Absolute Flex (solo para nuestros lectores).</t>
   </si>
   <si>
+    <t>obtenga la crema con descuento</t>
+  </si>
+  <si>
     <t>Haga clic sobre el botón más abajo para ganar un descuento.</t>
   </si>
   <si>
     <t>(La crema será entregada a Su casa durante 1-2 días – garantía de calidad)</t>
+  </si>
+  <si>
+    <t>pruébala hoy</t>
   </si>
   <si>
     <t>Comentarios de este artículo cerrados (17 comentarios).</t>
@@ -441,465 +444,522 @@
   <si>
     <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;
   &lt;style type="text/css"&gt;
-    body {
-      background: #fff
-    }
+  body {
+  background: #fff
+  }
   &lt;/style&gt;
   &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
   &lt;meta name="viewport" content="initial-scale=1"&gt;
-  &lt;title&gt;&lt;span data-translate="1"&gt;Amostras Grátis InstaFlex | Portal Drauzio Varella&lt;/span&gt;&lt;/title&gt;
+  &lt;title&gt;&lt;span data-translate="1"&gt;Crema Absolute Flex | Portal de Drauzio Varella&lt;/span&gt;&lt;/title&gt;
   &lt;link rel="stylesheet" href="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/animate.min.css"&gt;
   &lt;link href="./index_files/css" rel="stylesheet"&gt;
   &lt;link rel="dns-prefetch" href="https://ajax.googleapis.com/"&gt;
   &lt;link rel="stylesheet" id="css3lightbox_style-css" href="./index_files/style.html" type="text/css" media="all"&gt;
   &lt;style type="text/css" id="wp-custom-css"&gt;
-    .list .item .thumb-wrapper&gt;a {
-      width: -webkit-fill-available;
-    }
-    .img-responsive {
-      width: -webkit-fill-available;
-    }
-    .post-content&gt;p {
-      margin: 0 0 20px;
-    }
-    @media screen and (min-width:1200px) {
-      .single #content&gt;.hentry .thumb-wrapper {
-        margin-left: auto;
-        margin-right: auto;
-      }
-      .single #content&gt;.hentry .details {
-        margin-left: auto;
-        margin-right: auto;
-      }
-    }
-    .highlight-1 .thumb-wrapper:before {
-      padding-top: 0;
-    }
-    #menu-main-nav-1 {
-      display: none;
-    }
-    .at4-share .at4-share-count,
-    .at4-share .at4-share-count-container {
-      color: #565656;
-    }
-    @media screen and (max-width: 767px) {
-      .archive .call {
-        display: none;
-      }
-      .yarpp-related .call {
-        display: none;
-      }
-      .related-wrapper .details .call {
-        display: none;
-      }
-    }
-    .post-26408 .col-lg-8 .thumb-wrapper {
-      display: none;
-    }
+  .list .item .thumb-wrapper&gt;a {
+  width: -webkit-fill-available;
+  }
+  .img-responsive {
+  width: -webkit-fill-available;
+  }
+  .post-content&gt;p {
+  margin: 0 0 20px;
+  }
+  @media screen and (min-width:1200px) {
+  .single #content&gt;.hentry .thumb-wrapper {
+  margin-left: auto;
+  margin-right: auto;
+  }
+  .single #content&gt;.hentry .details {
+  margin-left: auto;
+  margin-right: auto;
+  }
+  }
+  .highlight-1 .thumb-wrapper:before {
+  padding-top: 0;
+  }
+  #menu-main-nav-1 {
+  display: none;
+  }
+  .at4-share .at4-share-count,
+  .at4-share .at4-share-count-container {
+  color: #565656;
+  }
+  @media screen and (max-width: 767px) {
+  .archive .call {
+  display: none;
+  }
+  .yarpp-related .call {
+  display: none;
+  }
+  .related-wrapper .details .call {
+  display: none;
+  }
+  }
+  .post-26408 .col-lg-8 .thumb-wrapper {
+  display: none;
+  }
   &lt;/style&gt;
   &lt;link rel="stylesheet" type="text/css" media="screen" href="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/style.css"&gt;
   &lt;style type="text/css"&gt;
-    @media screen and (min-width: 600px) {
-      .bottomMenu {
-        display: none !important;
-      }
-    }
-    .bottomMenu {
-      position: fixed;
-      bottom: 90px;
-      width: 100%;
-      height: 60px;
-      z-index: 1;
-      transition: all 1s;
-    }
-    .hide {
-      opacity: 0;
-      left: -100%;
-    }
-    .show {
-      opacity: 1;
-      left: 0;
-    }
+  @media screen and (min-width: 600px) {
+  .bottomMenu {
+  display: none !important;
+  }
+  }
+  .bottomMenu {
+  position: fixed;
+  bottom: 90px;
+  width: 100%;
+  height: 60px;
+  z-index: 1;
+  transition: all 1s;
+  }
+  .hide {
+  opacity: 0;
+  left: -100%;
+  }
+  .show {
+  opacity: 1;
+  left: 0;
+  }
   &lt;/style&gt;
-&lt;/head&gt;
-&lt;body class="post-template-default single single-post postid-1045 single-format-standard vsc-initialized"&gt;
-  &lt;div style="background-color: #262626"&gt;&lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/uol.png" Ò style="    width: 110px;          display: block;          margin: auto;          padding: 10px          "&gt;&lt;/div&gt;
+ &lt;/head&gt;
+ &lt;body class="post-template-default single single-post postid-1045 single-format-standard vsc-initialized"&gt;
+  &lt;div style="background-color: #262626"&gt;&lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/uol.png" Ò style=" width: 110px; display: block; margin: auto; padding: 10px "&gt;&lt;/div&gt;
   &lt;div id="page" class="container-fluid"&gt;
-    &lt;div id="header"&gt; &lt;a onclick="chamaCheckout()" href target="_blank" class="skip-link screen-reader-text" title="Pular para o conteúdo"&gt;&lt;span data-translate="2"&gt;Pular para o conteúdo&lt;/span&gt;&lt;/a&gt;
-      &lt;div class="menu-primary"&gt;
-        &lt;ul id="menu-main-nav" class="menu"&gt; &lt;/ul&gt;
-      &lt;/div&gt; &lt;a id="to</t>
-  </si>
-  <si>
-    <t>ggle-menu" onclick="chamaCheckout()" href target="_blank" class="toggle-menu"&gt;☰&lt;/a&gt; &lt;a id="logo" onclick="chamaCheckout()" href target="_blank"&gt; &lt;img class="img-responsive" src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/logo.png" alt="Dr. Drauzio Varella"&gt; &lt;/a&gt; &lt;a onclick="chamaCheckout()" href target="_blank" class="toggle-search visible-xs-inline-block"&gt;&lt;/a&gt;
-    &lt;/div&gt;
-    &lt;div id="content"&gt;
-      &lt;article class="post-1045 post type-post status-publish format-standard has-post-thumbnail hentry category-artigos category-drauzio category-pediatria tag-artigo tag-crianca tag-gripe tag-mito tag-resfriado tag-suplemento tag-vitamina"&gt;
-        &lt;header class="header"&gt;
-          &lt;h2 style="color:black" class="title"&gt; &lt;small class="category"&gt;&lt;span data-translate="3"&gt;Artigos&lt;/span&gt;&lt;/small&gt; &lt;span style="                         text-align: center;                         display: block;                         padding: 20px;                         font-size: 34px;                         "&gt;&lt;span data-translate="4"&gt;Reportagem
-              do Fantástico Anuncia: O Fim das Dores Articulares Finalmente Chega ao Brasil&lt;/span&gt;&lt;span&gt; &lt;/span&gt;&lt;/span&gt; &lt;/h2&gt;
-          &lt;div style="text-align: right" class="details details-meta"&gt; &lt;span class="author"&gt;&lt;span data-translate="5"&gt;Drauzio Varella &lt;/span&gt;&lt;/span&gt;
-            &lt;time class="post-date modified" datetime="2011-04-28T13:57:31+00:00"&gt;&lt;span data-translate="6"&gt;Publicado em 10 de novembro de
-              2019&lt;/span&gt;&lt;/time&gt; &lt;/div&gt;
-        &lt;/header&gt;
-        &lt;div class="row"&gt;
-          &lt;div class="col-lg-8 col-md-8 col-sm-12"&gt;
-            &lt;div class="thumb-wrapper"&gt; &lt;img width="1000" height="562" src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/var.jpg" class="img-responsive wp-post-image"&gt; &lt;/div&gt;
-            &lt;div class="post-content"&gt;
-              &lt;p style="text-align: center"&gt;&lt;em style="                            font-size: 20px;                            font-weight: bold;                            color: #2b2929;                            line-height: 26px;                            "&gt;&lt;span data-translate="7"&gt;Dores
-                  nas articulações afetam profundamente a vida das pessoas, mas segundo o &lt;/span&gt;&lt;u&gt;&lt;span data-translate="8"&gt;Dr. Drauzio Varella&lt;/span&gt;&lt;/u&gt;&lt;span data-translate="9"&gt;isso pode ser solucionado de uma forma extremamente simples!&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="10"&gt;Veja a reportagem que foi ao ar no último domingo no Fantástico:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="11"&gt;"Tenho muitos anos de experiência e posso garantir que a maior parte dos problemas articulares e até
-                ósseos são &lt;/span&gt;&lt;strong&gt;&lt;span data-translate="12"&gt;causados por falta de colágeno&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="13"&gt;e não por problemas relacionados ao cálcio ou
-                magnésio, como a maior parte das pessoas acredita."&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-rec</t>
-  </si>
-  <si>
-    <t>omenda-instaflex/./index_files/v1.jpg"&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="14"&gt;Quando o assunto é relacionado aos ossos quais são as principais reclamações dos pacientes Dr.
-                  Drauzio? &lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="15"&gt;"Na grande maioria dos casos as reclamações são de dores nas articulações, que vão de leves e moderadas
-                até dores realmente incapacitantes. Muitos destes pacientes ficam anos em busca de uma solução para suas
-                dores, que só pioram, sem encontrar algo como o &lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="16"&gt;Suplemento InstaFlex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;.&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="17"&gt;Geralmente tentam sem sucesso fazer uso de substâncias como a condroitina e a glucosamina, mas o que se
-                mostra realmente eficaz é fazer a reposição de colágeno."&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/ph1.jpg"&gt;
-              &lt;p&gt;&lt;span data-translate="18"&gt;"Em muitos casos podemos ver uma clara degeneração das estrturas articulares por falta de colágeno, sem
-                este o cálcio e outros elementos não tem como se ligar aos ossos, assim tornando o problema cada vez
-                mais grave."&lt;/span&gt;&lt;/p&gt;
-              &lt;blockquote&gt;
-                &lt;p&gt;&lt;span data-translate="19"&gt;É bem comum ver atrofias como as da Dona Cida, a parte boa é que esses problemas são totalmente
-                  reversíveis com tratamento de colágeno tipo 2.&lt;/span&gt;&lt;/p&gt;
-              &lt;/blockquote&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pe.jpg"&gt;
-              &lt;p style="text-align: center"&gt;&lt;strong&gt;&lt;span data-translate="20"&gt;Acima a imagem do pé da Dona Cida Pereira, que participou da matéria
-                  e que não tratou seus problemas articulares.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-              &lt;p&gt; &lt;/p&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="21"&gt;Qualquer tipo de Colágeno vai Ajudar? Pode falar-nos um pouco mais disso? &lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="22"&gt;"Na verdade não é qualquer tipo de colágeno que serve, se fosse assim seria muito fácil resolver o
-                problema, a rande questão é que necessitamos fazer a &lt;/span&gt;&lt;strong&gt;&lt;span data-translate="23"&gt;reposição com o colágeno do tipo certo e
-                  nas proporções adequadas&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="24"&gt;para de fato regenerar os tecidos das articulações e por fim
-                eliminar as dores.&lt;/span&gt;&lt;/p&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/instafrex.gif"&gt;
-              &lt;p&gt;&lt;span data-translate="25"&gt;O colágeno que precisamos para eliminar de vez as dores nas articulações é chamado de &lt;/span&gt;&lt;strong&gt;&lt;span data-translate="26"&gt;Colágeno
-                  Tipo 2&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="27"&gt;, também conhecido como UC2, que é justamente o principal &lt;/span&gt;&lt;a onclick="chamaChec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translate="28"&gt;ingrediente do InstaFlex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="29"&gt;, por isso afirmo que a solução é este
-                simples suplemento. &lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="30"&gt;Com as doses diárias corretas deste tipo de colágeno seu corpo naturalmente
-                volta a se regenerar por ter a "matéria-prima" correta em abundância na corrente sanguínea."&lt;/span&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="31"&gt;Como a Recuperação dos Pacientes costuma Acontecer? Pode nos Falar sobre isso Dr. Drauzio?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="32"&gt;"A maior parte dos casos apresenta uma recuperação bastante parecida, os pacientes que chegam com
-                muitas dores, alguns até mesmo com problemas de locomoção, vão melhorando dia após dia com o &lt;/span&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translate="33"&gt;uso do InstaFlex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="34"&gt;. &lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="35"&gt;Nos casos mais graves (os que já
-                apresentam problemas para se locomover), &lt;/span&gt;&lt;strong&gt;&lt;span data-translate="36"&gt;em cerca de 7 dias já podemos notar uma excelente
-                  melhora&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="37"&gt;, já conseguem executar tarefas simples como por exemplo ir ao mercado.&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/dores-articulares-1.jpg"&gt;
-              &lt;p&gt;&lt;span data-translate="38"&gt;Agora, com cerca de 2 semanas de tratamento é que notamos as mudanças mais significativas, mesmo em
-                casos de artrites graves nota-se uma melhora que faz parecer uma cura completa, a pessoas fica
-                completamente reestabelecida, &lt;/span&gt;&lt;strong&gt;&lt;span data-translate="39"&gt;sem nenhum tipo de dor&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="40"&gt;, podendo inclusive voltar a
-                praticar atividades físicas, que sabemos serem extremamente benéficas para a saúde."&lt;/span&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translate="41"&gt;→ Veja Depoimentos de Pessoas Que Tiveram a Vida Transformada Graças ao
-                    InstaFlex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="42"&gt;Como Chegou à conclusão de que InstaFlex Ajudaria seus Pacientes? &lt;/span&gt;&lt;/b&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/cont2.jpg"&gt;
-              &lt;p&gt;&lt;span data-translate="43"&gt;"Como já sabe sou médico cancerologista, por isso a maior parte dos meus pacientes é composta por
-                pessoas da terceira idade, para muitos de meus pacientes a prática de atividade física como por exemplo
-                fazer caminhadas é fundamental em sua recuperação. &lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="44"&gt;Foi justamente aí que fui obrigado a
-                encontrar uma solução para dores nas articulações, muitos deles não faziam as caminhadas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">justamente
-                porque as dores não permitiam."&lt;/span&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="45"&gt;"Também sou estudioso da nutrição, então rapidamente lembrei que&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="46"&gt;os ossos necessitam de
-                  colágeno tipo 2&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="47"&gt;para se manterem saudáveis, com isso em mente passei a buscar por fontes
-                ricas neste tipo de colágeno, a melhor fonte que temos hoje disponível no mercado é realmente o
-                &lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="48"&gt;Suplemento InstaFlex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;/a&gt;&lt;span data-translate="49"&gt;".&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/bio-thumb.jpg"&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="50"&gt;Parece muito promissor. Fale-nos mais sobre InstaFlex. &lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;div class="list"&gt;
-                &lt;p&gt;&lt;span data-translate="51"&gt;"Sim, vou falar justamente sobre o que mais chama minha atenção, que são os &lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="52"&gt;ingredientes utilizados pelo InstaFlex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="53"&gt;, com isso poderá entender
-                  porque afirmo que este suplemento é um verdadeiro bálsamo para as articulações:&lt;/span&gt;&lt;/p&gt;
-                &lt;ul style="margin-top: 35px"&gt;
-                  &lt;li&gt;&lt;span data-translate="54"&gt;extrato de esponja fresca e extrato de cálcio;&lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="55"&gt;óleo de bétula, óleo de pimenta caiena, óleo de eucalipto e óleo de milho; &lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="56"&gt;ureia e betaína; &lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="57"&gt;óleos essenciais de alecrim, gengibre, canela e cânfora; &lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="58"&gt;vanilina".&lt;/span&gt;&lt;/li&gt;
-                &lt;/ul&gt; &lt;br&gt;
-              &lt;/div&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pilula.jpg"&gt;
-              &lt;p&gt;&lt;span data-translate="59"&gt;Infelizmente, a maioria destes ingredientes não é vendida no Brasil, o que justamente leva a nossa
-                população a ter muitos problemas nas articulações, o que podemos fazer é suplementar com &lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="60"&gt;InstaFlex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="61"&gt;já que não costumamos ter estes ingredientes em nossa
-                alimentação, como por exemplo os asiáticos costumam ter.&lt;/span&gt;&lt;/p&gt;
-              &lt;div&gt;
-                &lt;p&gt;&lt;b&gt;&lt;span data-translate="62"&gt;Graças à sua fórmula única, InstaFlex é capaz de lidar com qualquer doença articular: &lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-                &lt;ul&gt;
-                  &lt;li&gt;&lt;span data-translate="63"&gt;artrite;&lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="64"&gt;artrose;&lt;/span&gt;&lt;/li&gt;
-       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           &lt;li&gt;&lt;span data-translate="65"&gt;coxartrose;&lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="66"&gt;osteoartrose; &lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="67"&gt;osteocondrose;&lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="68"&gt;osteocondrite; &lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="69"&gt;osteoporose; &lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="70"&gt;lesões nos meniscos; &lt;/span&gt;&lt;/li&gt;
-                  &lt;li&gt;&lt;span data-translate="71"&gt;gonartrose. &lt;/span&gt;&lt;/li&gt;
-                &lt;/ul&gt;
-              &lt;/div&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/dores3.jpg"&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="72"&gt;É incrível! InstaFlex é um Remédio? Existem Riscos de usá-lo?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="73"&gt;"Não, o &lt;/span&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translate="74"&gt;InstaFlex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="75"&gt;não é um remédio e não possui efeitos colaterais
-                relatados e nem mesmo algum tipo de restrição em seu uso, possui a&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="76"&gt;venda liberada pela
-                  ANVISA&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="77"&gt;, é completamente seguro e muito eficaz. &lt;/span&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="78"&gt;Como sabe sou adepto de tratamentos naturais, os vejo como muito melhores para nossa saúde uma vez que
-                não são tão agressivos como diversos tratamento convencionais. &lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="79"&gt;Claro que existem casos onde não
-                há outra forma de tratar se não com os remédios, mas sempre que possível recomendo que o tratamento deve
-                ser o mais natural possível, como por exemplo fazer uso do &lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="80"&gt;InstaFlex&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="81"&gt;(que é 100% natural) &lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="82"&gt;para tratar dores nas articulações".&lt;/span&gt;&lt;/p&gt;
-              &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/natureba.jpg"&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="83"&gt;Onde se pode comprar InstaFlex? &lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="84"&gt;Infelizmente, ainda não se consegue comprar em farmácias. As farmácias são dominadas por grandes redes
-                comerciais, produtos naturais dificilmente conseguem seu espaço em farmácias. &lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="85"&gt;Além disso, eles
-                vendem os seus produtos a preços bem elevados. Por vezes esses medicamentos têm terríveis efeitos
-                colaterais.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="86"&gt;A boa notícia é que se pode solicitar uma &lt;/span&gt;&lt;strong&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="87"&gt;Amostra Grátis do InstaFlex Original&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="88"&gt;, em poucos dias chega em sua casa.
-              &lt;/span</t>
-  </si>
-  <si>
-    <t>&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;b&gt;&lt;span data-translate="89"&gt;Excelente Notícia para Leitores do Blog do Drauzio:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-              &lt;p&gt;&lt;span data-translate="90"&gt;Assim que o Fantástico fez essa entrevista com o Dr. Drauzio Varella entramos em contato com o
-                fabricante do InstaFlex e conseguimos &lt;/span&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;strong&gt;&lt;span data-translate="91"&gt;Amostras Grátis exclusivas para nossos leitores&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;span data-translate="92"&gt;até dia &lt;/span&gt;&lt;span id="dadata"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="93"&gt;. &lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="94"&gt;Após esta data, não vão mais distribuir amostras
-                grátis.&lt;/span&gt;&lt;br&gt; &lt;/p&gt;
-              &lt;div style="background-color: #dcdcdc;color: #212121;text-align: center;padding: 10px"&gt;
-                &lt;p style="font-size: 28px;line-height: 40px"&gt;&lt;span data-translate="95"&gt;AVISO: A distribuição das Amostras Grátis encerra no dia:
-                  &lt;/span&gt;&lt;span style="color: red;text-decoration: underline"&gt;
-                    &lt;script language="Javascript"&gt;var dayNames = new Array("Domingo", "Segunda-Feira", "Terça-Feira", "Quarta-Feira", "Quinta-Feira", "Sexta-Feira", "Sabado");
-                      var monthNames = new Array("Janeiro", "Fevereiro", "Março", "Abril", "Maio", "Junho", "Julho", "Agosto", "Setembro", "Outubro", "Novembro", "Dezembro");
-                      var now = new Date();
-                      document.write(now.getDate() + " de " + monthNames[now.getMonth()] + " de " + now.getFullYear());&lt;/script&gt;&lt;span data-translate="96"&gt;5 de Julho de
-                    2020 &lt;/span&gt;&lt;/span&gt; &lt;/p&gt;
-                &lt;p style="font-size: 24px;margin-top: 50px;line-height: 30px"&gt;&lt;span data-translate="97"&gt;Clique no frasco abaixo para ganhar sua
-                  amostra grátis do InstaFlex (somente se for um de nossos leitores). &lt;/span&gt;&lt;/p&gt; &lt;a onclick="chamaCheckout()" href target="_blank"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/flexxpote.png" style="max-width: 500px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/cta3.png" style="margin-top: -40px;max-width: 500px"&gt; &lt;/a&gt;
-                &lt;p style="margin-top: -20px;text-align: center;font-size: 14px"&gt;&lt;a style="text-decoration: underline" href&gt;&lt;span data-translate="98"&gt;Clique
-                    No Botão Acima Para Ganhar Uma Amostra&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
-                &lt;p style="text-align: center"&gt;&lt;em&gt;&lt;span data-translate="99"&gt;(E receba em casa de forma segura em menos de 7 dias com garantia de
-                    satisfação!)&lt;/span&gt;&lt;/em&gt;&lt;/p&gt; &lt;a href&gt;&lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/comece-2-1.png" class="img-fluid animated infinite swing" style=";max-width: 500px"&gt;&lt;/a&gt;
-              &lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
-            &lt;/d</t>
-  </si>
-  <si>
-    <t>iv&gt;
-            &lt;div&gt;&lt;span data-translate="100"&gt;Os comentários deste artigo estão encerrados (17 comentários). &lt;/span&gt;&lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 20px;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="101"&gt;Elza disse:
-              &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="102"&gt;10/11/2019 às 12:27 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="103"&gt;Eu sentia muitas dores no corpo, nas
-                juntas e articulações. O diagnóstico era artrite! o Médico passou diversos remédios mas nada adiantava!
-                Só dinheiro jogado fora… Até que um dia minha comadre achou esse InstaFlex e me indicou. Pra minha
-                surpresa hoje, depois de um pouco mais de um dez dias fazendo uso já não sinto dores nenhuma! &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p2.jpg"&gt;&lt;span data-translate="104"&gt;Janaína disse:
-              &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="105"&gt;10/11/2019 às 14:35 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="106"&gt;Confesso que iniciei usar meio
-                desacreditada... Pra mim seria mais uma tentativa frustrada, me enganei! Logo nos primeiros dias comecei
-                sentir as primeiras transformações em meu corpo. O nível de disposição do meu organismo deu um salto! Eu
-                comecei a me sentir pelo menos uns 30 anos mais jovem... Recomendo! &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="107"&gt;Marta
-                Fonseca disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="108"&gt;10/11/2019 às 18:51 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="109"&gt;Eu sentia tantas dores na coluna que
-                nem conseguia abaixar para pegar o arroz no armário de baixo da cozinha... Vi o InstaFlex no Fantástico
-                e resolvi pedir minha amostra grátis... Chegou rapidinho aqui em casa e me surpreendeu!! Em 4 dias
-                minhas dores praticamente sumiram! Con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigo limpar a casa inteira sem sentir nada &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="110"&gt;Claudinéia
-                Bastos disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="111"&gt;10/11/2019 às 19:27 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="112"&gt;Por meses minhas noites sempre foram
-                mal dormidas e em posições desconfortáveis devido às dores nos joelhos e ombros. Depois de começar a
-                utilizar o fleexmais minhas dores sumiram me sinto 20 anos mais jovem e estou conseguindo dormir melhor
-              &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="113"&gt;Maria
-                Aparecida disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="114"&gt;11/11/2019 às 07:21 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="115"&gt;Sempre gostei de atividades ao ar
-                livre mas com o tempo e idade foram chegando certas dores nas articulações que me impediram por anos de
-                fazer tudo que eu gostava. Até que vi está reportagem do Dr. Dráuzio e resolvi experimentar uma amostra
-                grátis que ele indicou. Agora voltei a praticar minhas atividades retornei para minha rotina. Estou
-                muito feliz. &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="116"&gt;Fátima
-                Magalhaes disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="117"&gt;11/11/2019 às 09:34 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="118"&gt;Cheguei ao extremo. Não estava em
-                depressão, mas não fazia mais nenhum tipo exercício. Tive que deixar de fazer meu afazeres em casa, que
-                é minha grande paixão, por não conseguir mexer as mãos e abaixar direito . Então decidi não fazer mais
-                nada. Durante todo aquele período andava arrastada e tinha dores diárias. Se </t>
-  </si>
-  <si>
-    <t>não fizesse algo, eu iria
-                acabar em uma cadeira de rodas. &lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="119"&gt;Mas graças ao Suplemento InstaFlex minha vida voltou ao normal,
-                voltei a minha rotina, sem dores no corpo. &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="120"&gt;Francisca
-                disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="121"&gt;11/11/2019 às 13:51 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="122"&gt;Depois de 20 anos sem novidades
-                acerca do tratamento da artrose, um medicamento foi descoberto como eficiente nos cuidados da doença.
-                Comprovadamente eficaz para tratar a osteoporose, Suplemento InstaFlex mudou a minha vida. &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p3.jpg"&gt;&lt;span data-translate="123"&gt;Raimunda
-                disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="124"&gt;11/11/2019 às 16:44 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="125"&gt;Estava a 7 meses dormindo na sala
-                por não conseguir subir as escadas para meu o quarto de tanta dor nos joelhos. Graças a esse suplemento
-                indicado pelo Dráuzio, agora consigo subir as escadas e fazer coisas que estava impossibilitada pelas
-                dores. Muito obrigada por disponibilizar essa amostra grátis maravilhosa que devolveu a minha vida de
-                volta ao normal &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="126"&gt;Elza
-                disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="127"&gt;12/11/2019 às 11:12 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="128"&gt;Meu marido estava triste por não
-                conseguir mais jogar futebol com os amigos e sempre andava reclamando de dores no tornozelo vi então
-                essa amostra grátis recomendada pelo Dr Dráuzio e resolvi pedir para meu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> marido, em 3 dias ele estava
-                todo bobo e até comprou uma chuteira nova além de ter voltado a praticar suas corridinhas matinais. Sou
-                muito grata por poder vê-lo com um sorriso no rosto novamente. &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p1.jpg"&gt;&lt;span data-translate="129"&gt;Benedita
-                disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="130"&gt;12/11/2019 às 17:21 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="131"&gt;Por causa de dores e limitações nos
-                ombros vi meu neto nascer e não pude simplesmente pegá-lo no colo me senti a vó mais impotente e triste
-                do mundo. Foi então que uma amiga comentou comigo sobre um remédio recomendado pelo Dr. Dráuzio que
-                estava dando jeito nessas dores articulares resolvi experimentar uns comprimidos dela foi aí que vi que
-                realmente funcionava e dei sorte de ter encontrado amostras grátis. Pedi logo na mesma hora. Pegar meu
-                neto no colo 1 semana depois foi um dos momentos mais felizes da minha vida. &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="132"&gt;Sebastiana
-                disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="133"&gt;13/11/2019 às 10:30 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="134"&gt;Eu disse que ia pedir uma amostra
-                grátis e se realmente funcionasse eu faria propaganda de graça então estou cumprindo minha promessa.
-                Este remédio realmente funciona curou minhas dores e até a dor no pescoço desapareceu rsrsrs. Testado e
-                aprovado pessoal podem pedir. &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="135"&gt;Teresinha
-                disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="136"&gt;13/11/2019 às 12:54 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-transla</t>
-  </si>
-  <si>
-    <t>te="137"&gt;Ótimo produto, chegou muito antes do
-                tempo previsto de entrega. O resultado é exatamente como a descrição. &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div style="width: 100%;;  border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
-              &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p5.jpg"&gt;&lt;span data-translate="138"&gt;Rosângela
-                disse: &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="139"&gt;14/11/2019 às 12:20 &lt;/span&gt;&lt;/div&gt;
-              &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="140"&gt;Incrível, o InstaFlex superou as
-                minhas expectativas, Chegou no tempo previsto, eliminou as dores, simplesmente eficaz! Não tenho mais
-                dores no joelho devido a ficar em pé muito tempo no trabalho e em casa. Adorei e fui muito bem atendida.
-              &lt;/span&gt;&lt;/div&gt;
-            &lt;/div&gt;
-          &lt;/div&gt;
-        &lt;/div&gt;
-        &lt;div style="background-color: #dcdcdc;color: #212121;text-align: center;padding: 10px;max-width: 700px"&gt;
-          &lt;p style="font-size: 28px;line-height: 40px"&gt;&lt;span data-translate="141"&gt;AVISO: A distribuição das Amostras Grátis encerra no dia: &lt;/span&gt;&lt;span style="color: red;text-decoration: underline"&gt;
-              &lt;script language="Javascript"&gt;var dayNames = new Array("Domingo", "Segunda-Feira", "Terça-Feira", "Quarta-Feira", "Quinta-Feira", "Sexta-Feira", "Sabado");
-                var monthNames = new Array("Janeiro", "Fevereiro", "Março", "Abril", "Maio", "Junho", "Julho", "Agosto", "Setembro", "Outubro", "Novembro", "Dezembro");
-                var now = new Date();
-                document.write(now.getDate() + " de " + monthNames[now.getMonth()] + " de " + now.getFullYear());&lt;/script&gt;&lt;span data-translate="142"&gt;5 de Julho de
-              2020 &lt;/span&gt;&lt;/span&gt; &lt;/p&gt;
-          &lt;p style="font-size: 24px;margin-top: 50px;line-height: 30px"&gt;&lt;span data-translate="143"&gt;Clique no frasco abaixo para ganhar sua amostra
-            grátis do InstaFlex (somente se for um de nossos leitores). &lt;/span&gt;&lt;/p&gt; &lt;a onclick="chamaCheckout()" href target="_blank"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/flexxpote.png" style="width: 95%;max-width: 400px"&gt;&lt;br&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/cta3.png" style="margin-top: -40px;width: 95%;max-width: 500px"&gt; &lt;/a&gt;
-          &lt;p style=";text-align: center;font-size: 14px"&gt;&lt;a style="color: blue;text-decoration: underline" href&gt;&lt;span data-translate="144"&gt;Clique
-              No Botão Acima Para Ganhar Uma Amostra&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
-          &lt;p style="text-align: center"&gt;&lt;em&gt;&lt;span data-translate="145"&gt;(E receba em casa de forma segura em menos de 7 dias com garantia de
-              satisfação!)&lt;/span&gt;&lt;/em&gt;&lt;/p&gt; &lt;a href&gt;&lt;img src="./amostra-gratis/novo/i</t>
-  </si>
-  <si>
-    <t>nstaflex/drauzio-recomenda-instaflex/./index_files/comece-2-1.png" class="img-fluid animated infinite swing" style="width: 95%;max-width: 500px"&gt;&lt;/a&gt;
-        &lt;/div&gt;
-      &lt;/article&gt;
-      &lt;div class="about-author"&gt;
-        &lt;hr&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/75d76e2cbd5e8a5bcd7f8d1a5f7caaa2.jpg" srcset="https://secure.gravatar.com/avatar/75d76e2cbd5e8a5bcd7f8d1a5f7caaa2?s=192&amp;d=mm&amp;r=g 2x" class="avatar avatar-96 photo" height="96" width="96"&gt;
-        &lt;h3 class="title"&gt;&lt;span data-translate="146"&gt;Sobre o autor: Drauzio Varella&lt;/span&gt;&lt;/h3&gt;
-        &lt;div class="author-bio"&gt;&lt;span data-translate="147"&gt;Drauzio Varella é médico cancerologista e escritor. Foi um dos pioneiros no tratamento
-          da aids no Brasil. Entre seus livros de maior sucesso estão Estação Carandiru, Por um Fio e O Médico Doente.
-        &lt;/span&gt;&lt;/div&gt;
-      &lt;/div&gt;
-    &lt;/div&gt;
+  &lt;div id="header"&gt; &lt;a href class="skip-link screen-reader-text" title="Pular para o conteúdo"&gt;&lt;span data-translate="2"&gt;Ir al contenido&lt;/span&gt;&lt;/a&gt;
+  &lt;div class="menu-primary"&gt;
+  &lt;ul id="menu-main-nav" class="menu"&gt; &lt;/ul&gt;
+  &lt;/div&gt; &lt;a id="toggle-menu" href class="toggle-menu"&gt;☰&lt;/a&gt; &lt;a id="lo</t>
+  </si>
+  <si>
+    <t>go" href&gt; 
+  &lt;/a&gt; &lt;a href class="toggle-search visible-xs-inline-block"&gt;&lt;/a&gt;
+  &lt;/div&gt;
+  &lt;div id="content"&gt;
+  &lt;article class="post-1045 post type-post status-publish format-standard has-post-thumbnail hentry category-artigos category-drauzio category-pediatria tag-artigo tag-crianca tag-gripe tag-mito tag-resfriado tag-suplemento tag-vitamina"&gt;
+  &lt;header class="header"&gt;
+  &lt;h2 style="color:black" class="title"&gt; &lt;small class="category"&gt;&lt;span data-translate="3"&gt;Artículos&lt;/span&gt;&lt;/small&gt; &lt;span style="  text-align: center;  display: block;  padding: 20px;  font-size: 34px;  "&gt;&lt;span data-translate="4"&gt;Reportaje de "Fantastic": en España por fin apareció una respuesta para dolores de articulaciones&lt;/span&gt;&lt;span&gt;
+  &lt;/span&gt;&lt;/span&gt; &lt;/h2&gt;
+  &lt;div style="text-align: right" class="details details-meta"&gt; &lt;span class="author"&gt;&lt;span data-translate="5"&gt;Drauzio Varella&lt;/span&gt;&lt;/span&gt;
+  &lt;time class="post-date modified" datetime="2011-04-28T13:57:31+00:00"&gt;&lt;span data-translate="6"&gt;Publicado el 18 de agosto de
+  2020&lt;/span&gt;&lt;/time&gt; &lt;/div&gt;
+  &lt;/header&gt;
+  &lt;div class="row"&gt;
+  &lt;div class="col-lg-8 col-md-8 col-sm-12"&gt;
+  &lt;div class="thumb-wrapper"&gt; &lt;img width="1000" height="562" src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/var.jpg" class="img-responsive wp-post-image"&gt; &lt;/div&gt;
+  &lt;div class="post-content"&gt;
+  &lt;p style="text-align: center"&gt;&lt;em style=" font-size: 20px; font-weight: bold; color: #2b2929; line-height: 26px; "&gt;&lt;span data-translate="7"&gt;El dolor de articulaciones afecta bastante a la vida de personas, pero&lt;/span&gt;&lt;u&gt;&lt;span data-translate="8"&gt;el doctor Drauzio
+  Varella&lt;/span&gt;&lt;/u&gt;&lt;span data-translate="9"&gt;afirma que este problema tiene una solución muy fácil.&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="10"&gt;Consulte el reportaje de "Fantastic» del domingo pasado:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="11"&gt;- Tengo muchísima experiencia y puedo asegurarle de que la mayor parte de enfermedades de
+  articulaciones y hasta de huesos&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="12"&gt;se provocan por la falta de colágeno,&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="13"&gt;y no de calcio o
+  magnesio, como cree la mayoría.&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/v1.jpg"&gt;
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="14"&gt;- Si se trata de huesos, ¿de qué se quejan los pacientes con mayor frecuencia?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="15"&gt;- Normalmente la gente se queja de dolores de articulaciones, desde ligeros, moderados, hasta los que
+  impiden</t>
+  </si>
+  <si>
+    <t>los movimientos normales. Muchos de estos pacientes llevan muchos años intentando resolver sus
+  problemas, que solo se agravan, y no encuentran nada parecido a la&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="16"&gt;Crema Absolute Flex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;.&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="17"&gt;Suelen usar en vano condroitina o glucosamina, pero la eficacia real radica solo en su aplicación
+  conjunta, así como la sustitución de colágeno.&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/ph1.jpg"&gt;
+  &lt;p&gt;&lt;span data-translate="18"&gt;En muchos casos por falta de colágeno se observan cambios degenerativos de articulaciones sin el mismo
+  el calcio y otros elementos no penetran en el hueso, por lo tanto, todo empeora.&lt;/span&gt;&lt;/p&gt;
+  &lt;blockquote&gt;
+  &lt;p&gt;&lt;span data-translate="19"&gt;Frecuentemente hay deformaciones, como en caso de doña Sida. Pero también tenemos una buena noticia:
+  estos problemas pueden ser curados totalmente con colágeno de 2 tipo.&lt;/span&gt;&lt;/p&gt;
+  &lt;/blockquote&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pe.jpg"&gt;
+  &lt;p style="text-align: center"&gt;&lt;strong&gt;&lt;span data-translate="20"&gt;Más arriba pueden ver la pierna de doña Sida Pereira que no curaba
+  sus articulaciones.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+  &lt;p&gt; &lt;/p&gt;
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="21"&gt;- ¿Quiere decir que cualquier colágeno ayuda en caso de estos problemas? Coméntelo con más
+  detalle.&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="22"&gt;Lamentablemente, no cualquier colágeno ayuda, si no, el problema estaría fácilmente resuelto. Se trata
+  de la&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="23"&gt;sustitución or el tipo correcto de colágeno en proporciones correspondientes, así como la
+  aplicación conjunta de condroitina y glucosamina,&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="24"&gt;así mismo, en proporciones correctas, para
+  regenerar los tejidos de articulaciones y, finalmente, quitar el dolor.&lt;/span&gt;&lt;/p&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/instafrex.gif"&gt;
+  &lt;p&gt;&lt;span data-translate="25"&gt;El colágeno que quita los dolores de articulaciones de llama&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="26"&gt;el colágeno de II tipo&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="27"&gt;,
+  también conocido como UC-II – es el ingrediente&lt;/span&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="28"&gt;Principal de Absolute Flex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="29"&gt;, por lo tanto, esta crema solucionará
+  todos Sus problemas.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="30"&gt;En caso de dosis diarias correctas de este tipo de colágeno, Su cuerpo se
+  recuperará de modo natural, porque en Su cuerpo habrá «material de construcción» requerido.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;&lt;span data-translate="31"&gt;- Comente, por favor, cómo se produce la recuperación.&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="32"&gt;- Normalmente la recuperación se produce de forma bastante parecida – en los pacientes que sufrían de
+  dolores fuertes y hasta de problemas del aparato locomotor, se observa una mejora notable durante&lt;/span&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="33"&gt;el uso de Absolute Flex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt; .&lt;br&gt;&lt;br&gt;&lt;span data-translate="34"&gt;Hasta en casos más graves, cuando el paciente ya no puede moverse sin ayuda,&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="35"&gt;ya en 7 días se
+  puede observar mejoras notables&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="36"&gt;, los pacientes pueden realizar acciones no muy complicadas,
+  por ejemplo, ir a comprar sin ayuda.&lt;/span&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/dores-articulares-1.jpg"&gt;
+  &lt;p&gt;&lt;span data-translate="37"&gt;Y después de dos semanas del tratamiento las mejoras de notan hasta en caso de artritis muy grave, es
+  casi una recuperación completa, la gente se recupera completamente.&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="38"&gt;ya no tienen más
+  dolores&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="39"&gt;y hasta pueden dedicarse otra vez a la actividad física, lo cual, como sabemos, es
+  muy útil para la salud.&lt;/span&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="40"&gt;→ Siguiente: referencias de las personas
+  cuya vida cambió gracias a Absolute Flex.&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="41"&gt;- ¿Cómo entendió Vd. que Absolute Flex ayudaría a Sus pacientes?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/cont2.jpg"&gt;
+  &lt;p&gt;&lt;span data-translate="42"&gt;- Como sabe Vd., soy oncólogo, y la mayoría de mis pacientes son gente mayor, para muchos de ellos los
+  ejercicios físicos, por ejemplo, los paseos, las caminatas son muy importantes para la
+  recuperación.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="43"&gt;Es por eso que me dediqué al problema de dolores de articulaciones - a muchos de
+  ellos el problema les impedía caminar.&lt;/span&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="44"&gt;Como estudié nutriciología, recordé muy rápido que&lt;/span&gt;&lt;strong&gt;&lt;span data-translate="45"&gt;Los huesos sanos necesitan colágeno de II
+  tipo,&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="46"&gt;y empecé a buscar un fármaco con este colágeno. Hoy día la mejor en el mercado
+  es&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="47"&gt;La crema Absolute Flex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;a href&gt;&lt;/a&gt; .&lt;/p&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/bio-thumb.jpg"&gt;
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="48"&gt;- Suena muy esperanzador. Comente más cosas de Absolute Flex.&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="list"&gt;
+  &lt;p&gt;&lt;span data-translate="49"&gt;- Contaré lo que me parece más interesante, a saber, sobre los&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="50"&gt;ingredientes de Absolute Flex.&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="51"&gt;Ahora entenderá porque digo que
+  esta crema es un verdadero milagro para las articulaciones, porque consiste en:&lt;/span&gt;&lt;/p&gt;
+  &lt;ul style="margin-top: 35px"&gt;
+  &lt;li&gt;&lt;span data-translate="52"&gt;extracto de esponja fresca, extracto de calcio,&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="53"&gt;aceite de abedul, aceite de pimiento de cayena, aceite de eucalipto y de maíz;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="54"&gt;urea y betaína;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="55"&gt;Aceite esencial de romero, jengibre, canela y alcanfor;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="56"&gt;vainilla.&lt;/span&gt;&lt;/li&gt;
+  &lt;/ul&gt; &lt;br&gt;
+  &lt;/div&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pilula.jpg"&gt;
+  &lt;p&gt;&lt;span data-translate="57"&gt;Lamentablemente, la mayoría de estos ingredientes no se venden en España, por lo cual nuestra
+  población tiene muchos problemas de articulaciones. Para solucionar el problema, empieza a
+  usar&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="58"&gt;Absolute Flex&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="59"&gt;y tus
+  articulaciones te lo agradecerán.&lt;/span&gt;&lt;/p&gt;
+  &lt;div&gt;
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="60"&gt;Gracias a su fórmula única, Absolute Flex es capaz de curar cualquier enfermedad de
+  articulaciones:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;ul&gt;
+  &lt;li&gt;&lt;span data-translate="61"&gt;artritis;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="62"&gt;artritis;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="63"&gt;coxartrosis;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="64"&gt;osteoartrosis;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="65"&gt;osteocondrosis;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="66"&gt;osteocondritis;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="67"&gt;osteoporosis;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="68"&gt;lesiones del menisco;&lt;/span&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;span data-translate="69"&gt;gonartrosis.&lt;/span&gt;&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;/div&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/dores3.jpg"&gt;
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="70"&gt;- ¡Es increíble! Absolute Flex – ¿es un medicamento? ¿Hay riesgos de uso del mismo?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="71"&gt;- No,&lt;/span&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="72"&gt;Absolute Flex&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span data-translate="73"&gt;no es un
+  medicamento y no tiene efectos secundarios conocidos ni restricciones de uso,&lt;/span&gt;&lt;strong</t>
+  </si>
+  <si>
+    <t>&gt;&lt;span data-translate="74"&gt;su venta está
+  permitida por ANVISA,&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="75"&gt;es completamente seguro y muy eficaz. _x0001__x0001__x0001_&lt;/span&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="76"&gt;Como sabe Vd., soy partidario de tratamiento con medios naturales. Creo que son menos dañinos para
+  nosotros, porque son menos agresivos que los métodos «tradicionales».&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="77"&gt;Por supuesto, en algunos
+  casos solo los medicamentos ayudan, pero si es posible, recomiendo el tratamiento más natural posible,
+  por ejemplo, el uso de&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="78"&gt;Absolute Flex&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="79"&gt;(fármaco natural 100%)&lt;/span&gt;&lt;/strong&gt;&lt;span data-translate="80"&gt;Para el tratamiento de dolores de articulaciones.&lt;/span&gt;&lt;/p&gt;
+  &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/natureba.jpg"&gt;
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="81"&gt;- ¿Dónde se puede comprar Absolute Flex?&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="82"&gt;- Lamentablemente, todavía no se vende en farmacias donde predominan las marcas importantes y no hay
+  mucho sitio para remedios naturales.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="83"&gt;Además, las farmacias venden sus productos por precios muy
+  altos. A veces estos fármacos tienen efectos secundarios muy importantes.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="84"&gt;Por fortuna, Vd. puede
+  pedir&lt;/span&gt;&lt;strong&gt;&lt;a href&gt;&lt;span data-translate="85"&gt;la crema Absolute Flex,&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;span data-translate="86"&gt;y
+  en pocos días la entregarán a Su casa.&lt;/span&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;b&gt;&lt;span data-translate="87"&gt;Noticias perfectas para los lectores del blog del doctor Drauzio:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p&gt;&lt;span data-translate="88"&gt;Después de la entrevista con Drauzio Varella nos pusimos en contacto con el productor de Absolute Flex
+  y recibimos&lt;/span&gt;&lt;a href&gt;&lt;strong&gt;&lt;span data-translate="89"&gt;un descuento de 50% para la crema
+  para nuestros lectores&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;span data-translate="90"&gt;La oferta es válida solo hoy&lt;/span&gt;&lt;span id="dadata"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt; .&lt;br&gt;&lt;br&gt;&lt;span data-translate="91"&gt;Mañana finalizará la oferta de la crema.&lt;/span&gt;&lt;br&gt; &lt;/p&gt;
+  &lt;div style="background-color: #dcdcdc;color: #212121;text-align: center;padding: 10px"&gt;
+  &lt;p style="font-size: 28px;line-height: 40px"&gt;&lt;span data-translate="92"&gt;ATENCIÓN: Unidades de crema con un descuento
+  restringidas:&lt;/span&gt;&lt;span style="color: red;text-decoration: underline"&gt;
+  &lt;script language="Javascript"&gt;var dayNames = new Array("Domingo", "Segunda-Feira", "Terça-Feira", "Quarta-Feira", "Quinta-Feira", "Sexta-Feira", "Sabado");
+  var monthNames = new Array("Janeiro", "Fevereiro", "Março", "Abril", "Maio", "Junho", "Julho", "Agosto", "Sete</t>
+  </si>
+  <si>
+    <t>mbro", "Outubro", "Novembro", "Dezembro");
+  var now = new Date();
+  document.write(now.getDate() + " de " + monthNames[now.getMonth()] + " de " + now.getFullYear());&lt;/script&gt;&lt;span data-translate="93"&gt;5 de julio de 2020&lt;/span&gt;&lt;/span&gt; &lt;/p&gt;
+  &lt;p style="font-size: 24px;margin-top: 50px;line-height: 30px"&gt;&lt;span data-translate="94"&gt;Pulse sobre la crema para tener un
+  descuento de 50% para la crema Absolute Flex (solo para nuestros lectores).&lt;/span&gt;&lt;/p&gt; &lt;a href&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/flexxpote.png" style="max-width: 500px"&gt;
+  &lt;div class="btn-green"&gt;
+  &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/cta3.png" style="width: 95%;max-width: 500px"&gt;
+  &lt;span&gt;&lt;span data-translate="95"&gt;получите бесплатный образец&lt;/span&gt;&lt;/span&gt;
+  &lt;/div&gt;
+  &lt;/a&gt;
+  &lt;p style="margin-top: -20px;text-align: center;font-size: 14px"&gt;&lt;a style="text-decoration: underline" href&gt;&lt;span data-translate="96"&gt;Haga clic sobre el botón más abajo para ganar un descuento.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+  &lt;p style="text-align: center"&gt;&lt;em&gt;&lt;span data-translate="97"&gt;(La crema será entregada a Su casa durante 1-2 días – garantía de
+  calidad)&lt;/span&gt;&lt;/em&gt;&lt;/p&gt; &lt;a href&gt;
+  &lt;div class="btn-wrapper animated infinite swing"&gt;
+  &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/comece-2-1.png" class="img-fluid" style=";max-width: 500px"&gt;
+  &lt;span&gt;&lt;span data-translate="98"&gt;попробуйте сегодня&lt;/span&gt;&lt;/span&gt;
+  &lt;/div&gt;
+  &lt;/a&gt;
+  &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
+  &lt;/div&gt;
+  &lt;div&gt;&lt;span data-translate="99"&gt;Comentarios de este artículo cerrados (17 comentarios).&lt;/span&gt;&lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 20px;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="100"&gt;Leonor:
+  &lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="101"&gt;10/11/2019 a 12:27&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="102"&gt;Tenía dolores espantosos en todo el
+  cuerpo, sobre todo de articulaciones. El diagnóstico fue artritis. Me recetaron varios medicamentos,
+  pero nada ayudó. Solo gasté el dinero... Un día una amiga me contó de Absolute Flex. Parece mentira,
+  pero empecé a tomarlo hace 10 días y ya</t>
+  </si>
+  <si>
+    <t>no tengo más dolores.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p2.jpg"&gt;&lt;span data-translate="103"&gt;Ana:&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="104"&gt;10/11/2019 a 14:35&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="105"&gt;Debo confesar que empecé a tomar
+  Absolute Flex sin esperar mucho... Pensaba que sería como siempre, pero me equivoqué. Ya durante los
+  primeros días empecé a notar los cambios. Mi estado de salud mejoró bastante, me siento unos 30 años más
+  jóven. ¡Lo recomiendo a todos!&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="106"&gt;Marta
+  Sánchez:&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="107"&gt;10/11/2019 a 18:51&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="108"&gt;Tenía tanto dolor de espalda que ni
+  siquiera podía agacharme en la cocina para coger algo del cajón más bajo... Vi este artículo sobre
+  Absolute Flex y decidí pedir una muestra gratuita... La entregaron muy rápido, me asombran los
+  resultados. En 4 días los dolores casi desaparecieron. Puedo hacer limpieza casi en toda la casa, y no
+  siento nada.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="109"&gt;Raquel
+  Baos:&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="110"&gt;10/11/2019 a 19:27&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="111"&gt;Siempre dormía muy mal por causa de
+  dolores de rodillas y articulaciones del hombro. Pero cuando empecé a aplicar Absolute Flex, ya no tuve
+  más dolores, me siento 20 años más joven y por fin puedo dormir tranquilamente.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
+  &lt;di</t>
+  </si>
+  <si>
+    <t>v style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="112"&gt;María
+  Aparecida.&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="113"&gt;10/11/2019 a 7:21&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="114"&gt;Siempre me gustaba pasear, pero con
+  la edad empezaron los dolores de articulaciones y ya no podía salir desde hace varios años. Pero vi el
+  programa con el doctor Drauzio y decidí probar el fármaco mencionado. Recibí la crema con un descuento.
+  Después de una semana de aplicación de la crema, puedo pasear y otra vez llevo la vida normal. ¡Soy tan
+  feliz!&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="115"&gt;Amalia
+  Rubio:&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="116"&gt;10/11/2019 a 9:34&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="117"&gt;Ya no sabía qué hacer. Tenía
+  muchísimos dolores de articulaciones. Tuve que dejar de dedicarme a las tareas de casa, lo cual me gusta
+  tanto. Pero ni siquiera pude mover los brazos y bajarlos, y decidí no hacer nada. Estaba tumbada todo el
+  rato y tenía dolores constantes. Si no hubiera hecho nada más, podría acabar minusválida.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span data-translate="118"&gt;Afortunadamente, empecé a aplicar la crema Absolute Flex y otra vez llevo la vida normal, no me duele
+  nada.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="119"&gt;Elena:
+  &lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="120"&gt;10/11/2019 a 13:51&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="121"&gt;Durante los últimos 20 años no hubo
+  ninguna novedad importante de tratamiento de artrosis, y por fin apareció un fármaco que ayuda en caso
+  de esta enfermedad. Absolute Flex – es una crema que cambió mi vida, su eficacia ha sido comprobada para
+  curar osteoporosis.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1p</t>
+  </si>
+  <si>
+    <t>x; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p3.jpg"&gt;&lt;span data-translate="122"&gt;Amanda:&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="123"&gt;10/11/2019 a 16:44&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="124"&gt;Llevaba medio año durmiendo en el
+  salón porque no podía subir las escaleras para entrar en el dormitorio, me dolían mucho las rodillas.
+  Gracias a esta crema recomendada por el doctor Drauzio, otra vez puedo usar las escaleras, y mucho más.
+  ¡Muchas gracias por esta crema, es un verdadero milagro que me ayudó a volver a la vida normal!&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="125"&gt;Leonor:
+  &lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="126"&gt;10/11/2019 a 11:12&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="127"&gt;Mi marido estaba muy deprimido, ya
+  no podía jugar al fútbol con sus amigos, siempre se quejaba de dolores de piernas, vi un artículo sobre
+  la crema Absolute Flex y las recomendaciones del doctor Drauzio, y decidí pedirlo para mi marido, que ya
+  2 días más tarde casi lloraba de alegría y hasta se compró nuevas zapatillas y empezó a correr por la
+  mañana otra vez. Les estoy muy agradecida por su sonrisa.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p1.jpg"&gt;&lt;span data-translate="128"&gt;Sofía:&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="129"&gt;10/11/2019 a 17:21&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="130"&gt;A causa de dolores constantes en
+  articulaciones del hombro no pude llevar a mi nieto en brazos cuando el mismo nació. Me sentía tan
+  desamparada. Luego una amiga me contó sobre esta crema recomendada por el doctor Drauzio dijo que ayuda
+  en caso de estos dolores, decidí probarla, y vi que realmente ayuda. Ya una semana mas tarde pude llevar
+  a mi nieto en brazos. ¡El momento más feliz de m</t>
+  </si>
+  <si>
+    <t>i vida!&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="131"&gt;Martina:
+  &lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="132"&gt;10/11/2019 a 10:30&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="133"&gt;Decidí pedirlo y publicitarlo gratis
+  si hay resultado, y cumplo con mi promesa. Esta crema realmente funciona, ya no tengo más dolores,
+  tampoco los de espalda. Lo comprobé, puede pedirlo sin miedo.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;background-color: #ECF2F6;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/pessoa.jpg"&gt;&lt;span data-translate="134"&gt;Teresa:
+  &lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="135"&gt;10/11/2019 a 12:54&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="136"&gt;Es un remedio perfecto, lo
+  entregaron muy rápido. El resultado es igual a lo prometido.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="width: 100%;; border-width: 1px; border-top-style: dashed; border-color: #333;margin-top: 50px;padding: 10px"&gt;
+  &lt;div style="margin-top: 20px"&gt; &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/p5.jpg"&gt;&lt;span data-translate="137"&gt;Ángela:&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;margin-top: 5px"&gt;&lt;span data-translate="138"&gt;10/11/2019 a 12:20&lt;/span&gt;&lt;/div&gt;
+  &lt;div style=";font-size: 15px;padding-top: 20px;padding-bottom: 20px"&gt;&lt;span data-translate="139"&gt;Es un milagro, Absolue Flex superó
+  todas mis esperanzas, lo entregaron rápido, ya no tengo más dolores, todo corresponde a lo prometido. Ya
+  no me duelen más las articulaciones de rodilla porque en el trabajo paso mucho tiempo de pie. Me gustó
+  todo, y el servicio es perfecto.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div style="background-color: #dcdcdc;color: #212121;text-align: center;padding: 10px;max-width: 700px"&gt;
+  &lt;p style="font-size: 28px;line-height: 40px"&gt;&lt;span data-translate="140"&gt;ATENCIÓN: Unidades de crema con un descuento restringidas:&lt;/span&gt;&lt;span style="color: red;text-decoration: underline"&gt;
+  &lt;script language="Javascript"&gt;var dayNames = new Array("Domingo", "Segunda-Feira", "Terça-Feira", "Quarta-Feira", "Quinta-Feira", "Sexta-Feira", "Sab</t>
+  </si>
+  <si>
+    <t>ado");
+  var monthNames = new Array("Janeiro", "Fevereiro", "Março", "Abril", "Maio", "Junho", "Julho", "Agosto", "Setembro", "Outubro", "Novembro", "Dezembro");
+  var now = new Date();
+  document.write(now.getDate() + " de " + monthNames[now.getMonth()] + " de " + now.getFullYear());&lt;/script&gt;&lt;span data-translate="141"&gt;5
+  de julio de 2020&lt;/span&gt;&lt;/span&gt; &lt;/p&gt;
+  &lt;p style="font-size: 24px;margin-top: 50px;line-height: 30px"&gt;&lt;span data-translate="142"&gt;Pulse sobre la crema para tener un descuento de
+  50% para la crema Absolute Flex (solo para nuestros lectores).&lt;/span&gt;&lt;/p&gt; &lt;a href&gt;
+  &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/flexxpote.png" style="width: 95%;max-width: 400px"&gt;&lt;br&gt;
+  &lt;div class="btn-green"&gt;
+  &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/cta3.png" style="width: 95%;max-width: 500px"&gt;
+  &lt;span&gt;&lt;span data-translate="143"&gt;получите бесплатный образец&lt;/span&gt;&lt;/span&gt;
+  &lt;/div&gt;
+  &lt;/a&gt;
+  &lt;p style=";text-align: center;font-size: 14px"&gt;&lt;a style="color: blue;text-decoration: underline" href&gt;&lt;span data-translate="144"&gt;Haga
+  clic sobre el botón más abajo para ganar un descuento.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+  &lt;p style="text-align: center"&gt;&lt;em&gt;&lt;span data-translate="145"&gt;(La crema será entregada a Su casa durante 1-2 días – garantía de
+  calidad)&lt;/span&gt;&lt;/em&gt;&lt;/p&gt; &lt;a href&gt;
+  &lt;div class="btn-wrapper animated infinite swing"&gt;
+  &lt;img src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/comece-2-1.png" class="img-fluid" style=";max-width: 500px"&gt;
+  &lt;span&gt;&lt;span data-translate="146"&gt;попробуйте сегодня&lt;/span&gt;&lt;/span&gt;
+  &lt;/div&gt;
+  &lt;/a&gt;
+  &lt;/div&gt;
+  &lt;/article&gt;
+  &lt;div class="about-author"&gt;
+  &lt;hr&gt; &lt;img alt src="./amostra-gratis/novo/instaflex/drauzio-recomenda-instaflex/./index_files/75d76e2cbd5e8a5bcd7f8d1a5f7caaa2.jpg" srcset="https://secure.gravatar.com/avatar/75d76e2cbd5e8a5bcd7f8d1a5f7caaa2?s=192&amp;d=mm&amp;r=g 2x" class="avatar avatar-96 photo" height="96" width="96"&gt;
+  &lt;h3 class="title"&gt;&lt;span data-translate="147"&gt;Sobre el autor: Drauzio Varella&lt;/span&gt;&lt;/h3&gt;
+  &lt;div class="author-bio"&gt;&lt;span data-translate="148"&gt;Drauzio Varella es oncólogo y escritor. Uno de los pioneros de tratamiento del SIDA en
+  Brasil. Entre sus bestsellers: Estación Carandiru, A dos dedos, y El médico enfermo.&lt;/span&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;/div&gt;
   &lt;/div&gt;
   &lt;div id="footer" class="footer"&gt;
-    &lt;div class="comscore col-xs-3"&gt;&lt;span data-translate="148"&gt;Site parceiro do UOL Viva Bem&lt;/span&gt;&lt;/div&gt;
-    &lt;div id="nav_menu-7" class="col-xs-7 widget_nav_menu"&gt;
-      &lt;div class="menu-footer-container"&gt;
-        &lt;ul id="menu-footer" class="menu"&gt;
-          &lt;li id="menu-item-36" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-36"&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="149"&gt;Contato&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
-          &lt;li id="menu-item-49" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-49"&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="150"&gt;Termos de Uso&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
-          &lt;li id="menu-item-35414" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-35414"&gt;&lt;a onclick="chamaCheckout()" href target="_blank"&gt;&lt;span data-translate="151"&gt;Política de Privacidade&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
-        &lt;/ul&gt;
-      &lt;/div&gt;
-    &lt;/div&gt;
+  &lt;div class="comscore col-xs-3"&gt;&lt;span data-translate="149"&gt;Sitio web socio con UOL Viva Bem&lt;/span&gt;&lt;/div&gt;
+  &lt;div id="nav_menu-7" class="col-xs-7 widget_nav_menu"&gt;
+  &lt;div class="menu-footer-container"&gt;
+  &lt;ul id="menu-footer" class="menu"&gt;
+  &lt;li id="menu-item-36" class="menu-item menu-item-type-post_type menu-item-object</t>
+  </si>
+  <si>
+    <t>-page menu-item-36"&gt;&lt;a href&gt;&lt;span data-translate="150"&gt;Información de contacto&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
+  &lt;li id="menu-item-49" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-49"&gt;&lt;a href&gt;&lt;span data-translate="151"&gt;Requisitos de uso&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
+  &lt;li id="menu-item-35414" class="menu-item menu-item-type-post_type menu-item-object-page menu-item-35414"&gt;&lt;a href&gt;&lt;span data-translate="152"&gt;Política de privacidad&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;/div&gt;
+  &lt;/div&gt;
   &lt;/div&gt;
   &lt;style type="text/css"&gt;
-    .post-content img {
-      width: 100%;
-      margin-bottom: 20px
-    }
-    .post-content b {
-      color: black;
-    }
-    .single #content&gt;.hentry .post-content a {
-      color: #004aff !important;
-      text-decoration: underline;
-    }
-    .single #content&gt;.hentry .post-content a strong {
-      color: #004aff !important;
-      text-decoration: underline;
-    }
-    p {
-      line-height: 28px;
-    }
-    .page #content li,
-    .single #content&gt;.hentry .post-content li {
-      margin-bottom: 1em;
-    }
+  .post-content img {
+  width: 100%;
+  margin-bottom: 20px
+  }
+  .post-content b {
+  color: black;
+  }
+  .single #content&gt;.hentry .post-content a {
+  color: #004aff !important;
+  text-decoration: underline;
+  }
+  .single #content&gt;.hentry .post-content a strong {
+  color: #004aff !important;
+  text-decoration: underline;
+  }
+  p {
+  line-height: 28px;
+  }
+  .page #content li,
+  .single #content&gt;.hentry .post-content li {
+  margin-bottom: 1em;
+  }
   &lt;/style&gt;
   &lt;script&gt;var today = new Date();
-    var dd = String(today.getDate()).padStart(2, '0');
-    var mm = String(today.getMonth() + 1).padStart(2, '0');
-    var yyyy = today.getFullYear();
-    today = dd + '/' + mm + '/' + yyyy;
-    document.getElementById('dadata').innerHTML = today;&lt;/script&gt;
+  var dd = String(today.getDate()).padStart(2, '0');
+  var mm = String(today.getMonth() + 1).padStart(2, '0');
+  var yyyy = today.getFullYear();
+  today = dd + '/' + mm + '/' + yyyy;
+  document.getElementById('dadata').innerHTML = today;&lt;/script&gt;
   &lt;script&gt;function chamaCheckout() {
-      fbq('track', 'InitiateCheckout');
-      ga('send', 'event', 'link', 'click', 'AbriuCheckout');
-    }&lt;/script&gt;
-&lt;/body&gt;&lt;/html&gt;</t>
+  fbq('track', 'InitiateCheckout');
+  ga('send', 'event', 'link', 'click', 'AbriuCheckout');
+  }&lt;/script&gt;
+  &lt;style&gt;
+  .btn-green {
+  position: relative;
+  }
+  .btn-green span {
+  position: absolute;
+  color: #fff;
+  top: 0;
+  left: 0;
+  right: 0;
+  display: flex;
+  align-items: center;
+  justify-content: center;
+  }
+  .btn-wrapper {
+  position: relative;
+  }
+  .btn-wrapper span {
+  position: absolute;
+  top: 0;
+  bottom: 0;
+  left: 0;
+  right: 0;
+  display: flex;
+  align-items: center;
+  justify-content: center;
+  color: #fff;
+  font-size: 30px;
+  }
+  &lt;/style&gt;
+  &lt;script&gt;
+  const btnWrappers = document.querySelectorAll('.btn-green');
+  const btns = document.querySelectorAll('.btn-green img');
+  window.addEventListener('load', () =&gt; {
+  btns.forEach((btn, index) =&gt; {
+  const btnHeight = getHeight(btn)
+  btnWrappers[index].style.height = btnHeight + 'px'
+  const span = btnWrappers[index].querySelector('span')
+  console.log(span);
+  span.style.height = btn.height - 4 + 'px'
+  })
+  })
+  function getHeight(el) {
+  const styles = window.getComputedStyle(el)
+  const margin = parseFloat(styles['marginTop']) + parseFloat(styles['marginBottom']);
+  return Math.ceil(el.offsetHeight + margin)
+  }
+  &lt;/script&gt;
+ &lt;/body&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -926,9 +986,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -944,13 +1006,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -966,8 +1042,15 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1430,67 +1513,67 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -1505,47 +1588,47 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -1555,27 +1638,27 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -1585,307 +1668,307 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -1915,7 +1998,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
@@ -1944,7 +2027,9 @@
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="5"/>
+      <c r="A152" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="153" ht="15.75" customHeight="1"/>
     <row r="154" ht="15.75" customHeight="1"/>
@@ -2808,67 +2893,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>143</v>
+      <c r="A4" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>144</v>
+      <c r="A5" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/pre/offers-81/absflex/es/Преленд 2 суставы крем Absolute Flex ES.xlsx
+++ b/pre/offers-81/absflex/es/Преленд 2 суставы крем Absolute Flex ES.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="154">
   <si>
-    <t>Crema Absolute Flex | Portal de Drauzio Varella</t>
+    <t>Crema Absolute Flex | Portal de Joaquin Artesanos</t>
   </si>
   <si>
     <t>Ir al contenido</t>
@@ -28,19 +28,19 @@
     <t>Artículos</t>
   </si>
   <si>
-    <t>Reportaje de "Fantastic": en España por fin apareció una respuesta para dolores de articulaciones</t>
-  </si>
-  <si>
-    <t>Drauzio Varella</t>
+    <t>Reportaje de "Fantastic": en España por fin apareció una respuesta para los dolores de las articulaciones</t>
+  </si>
+  <si>
+    <t>Joaquin Artesanos</t>
   </si>
   <si>
     <t>Publicado el 18 de agosto de 2020</t>
   </si>
   <si>
-    <t>El dolor de articulaciones afecta bastante a la vida de personas, pero</t>
-  </si>
-  <si>
-    <t>el doctor Drauzio Varella</t>
+    <t>El dolor de articulaciones afecta bastante a la vida de las personas, pero</t>
+  </si>
+  <si>
+    <t>el doctor Joaquin Artesanos</t>
   </si>
   <si>
     <t>afirma que este problema tiene una solución muy fácil.</t>
@@ -139,10 +139,10 @@
     <t>→ Siguiente: referencias de las personas cuya vida cambió gracias a Absolute Flex.</t>
   </si>
   <si>
-    <t>- ¿Cómo entendió Vd. que Absolute Flex ayudaría a Sus pacientes?</t>
-  </si>
-  <si>
-    <t>- Como sabe Vd., soy oncólogo, y la mayoría de mis pacientes son gente mayor, para muchos de ellos los ejercicios físicos, por ejemplo, los paseos, las caminatas son muy importantes para la recuperación.</t>
+    <t>- ¿Cómo entendió Usted que Absolute Flex ayudaría a Sus pacientes?</t>
+  </si>
+  <si>
+    <t>- Como sabe Usted, soy oncólogo, y la mayoría de mis pacientes son gente mayor, para muchos de ellos los ejercicios físicos, por ejemplo, los paseos, las caminatas son muy importantes para la recuperación.</t>
   </si>
   <si>
     <t>Es por eso que me dediqué al problema de dolores de articulaciones - a muchos de ellos el problema les impedía caminar.</t>
@@ -235,10 +235,10 @@
     <t>su venta está permitida por ANVISA,</t>
   </si>
   <si>
-    <t>es completamente seguro y muy eficaz. _x0001__x0001__x0001_</t>
-  </si>
-  <si>
-    <t>Como sabe Vd., soy partidario de tratamiento con medios naturales. Creo que son menos dañinos para nosotros, porque son menos agresivos que los métodos «tradicionales».</t>
+    <t xml:space="preserve">es completamente seguro y muy eficaz. </t>
+  </si>
+  <si>
+    <t>Como sabe Usted, soy partidario de tratamiento con medios naturales. Creo que son menos dañinos para nosotros, porque son menos agresivos que los métodos «tradicionales».</t>
   </si>
   <si>
     <t>Por supuesto, en algunos casos solo los medicamentos ayudan, pero si es posible, recomiendo el tratamiento más natural posible, por ejemplo, el uso de</t>
@@ -259,7 +259,7 @@
     <t>Además, las farmacias venden sus productos por precios muy altos. A veces estos fármacos tienen efectos secundarios muy importantes.</t>
   </si>
   <si>
-    <t>Por fortuna, Vd. puede pedir</t>
+    <t>Por fortuna, Usted puede pedir</t>
   </si>
   <si>
     <t>la crema Absolute Flex,</t>
@@ -268,10 +268,10 @@
     <t>y en pocos días la entregarán a Su casa.</t>
   </si>
   <si>
-    <t>Noticias perfectas para los lectores del blog del doctor Drauzio:</t>
-  </si>
-  <si>
-    <t>Después de la entrevista con Drauzio Varella nos pusimos en contacto con el productor de Absolute Flex y recibimos</t>
+    <t>Noticias perfectas para los lectores del blog del doctor Joaquin:</t>
+  </si>
+  <si>
+    <t>Después de la entrevista con Joaquin Artesanos nos pusimos en contacto con el productor de Absolute Flex y recibimos</t>
   </si>
   <si>
     <t>un descuento de 50% para la crema para nuestros lectores</t>
@@ -349,7 +349,7 @@
     <t>10/11/2019 a 7:21</t>
   </si>
   <si>
-    <t>Siempre me gustaba pasear, pero con la edad empezaron los dolores de articulaciones y ya no podía salir desde hace varios años. Pero vi el programa con el doctor Drauzio y decidí probar el fármaco mencionado. Recibí la crema con un descuento. Después de una semana de aplicación de la crema, puedo pasear y otra vez llevo la vida normal. ¡Soy tan feliz!</t>
+    <t>Siempre me gustaba pasear, pero con la edad empezaron los dolores de articulaciones y ya no podía salir desde hace varios años. Pero vi el programa con el doctor Artesanos y decidí probar el fármaco mencionado. Recibí la crema con un descuento. Después de una semana de aplicación de la crema, puedo pasear y otra vez llevo la vida normal. ¡Soy tan feliz!</t>
   </si>
   <si>
     <t>Amalia Rubio:</t>
@@ -379,13 +379,13 @@
     <t>10/11/2019 a 16:44</t>
   </si>
   <si>
-    <t>Llevaba medio año durmiendo en el salón porque no podía subir las escaleras para entrar en el dormitorio, me dolían mucho las rodillas. Gracias a esta crema recomendada por el doctor Drauzio, otra vez puedo usar las escaleras, y mucho más. ¡Muchas gracias por esta crema, es un verdadero milagro que me ayudó a volver a la vida normal!</t>
+    <t>Llevaba medio año durmiendo en el salón porque no podía subir las escaleras para entrar en el dormitorio, me dolían mucho las rodillas. Gracias a esta crema recomendada por el doctor Artesanos, otra vez puedo usar las escaleras, y mucho más. ¡Muchas gracias por esta crema, es un verdadero milagro que me ayudó a volver a la vida normal!</t>
   </si>
   <si>
     <t>10/11/2019 a 11:12</t>
   </si>
   <si>
-    <t>Mi marido estaba muy deprimido, ya no podía jugar al fútbol con sus amigos, siempre se quejaba de dolores de piernas, vi un artículo sobre la crema Absolute Flex y las recomendaciones del doctor Drauzio, y decidí pedirlo para mi marido, que ya 2 días más tarde casi lloraba de alegría y hasta se compró nuevas zapatillas y empezó a correr por la mañana otra vez. Les estoy muy agradecida por su sonrisa.</t>
+    <t>Mi marido estaba muy deprimido, ya no podía jugar al fútbol con sus amigos, siempre se quejaba de dolores de piernas, vi un artículo sobre la crema Absolute Flex y las recomendaciones del doctor Artesanos, y decidí pedirlo para mi marido, que ya 2 días más tarde casi lloraba de alegría y hasta se compró nuevas zapatillas y empezó a correr por la mañana otra vez. Les estoy muy agradecida por su sonrisa.</t>
   </si>
   <si>
     <t>Sofía:</t>
@@ -394,7 +394,7 @@
     <t>10/11/2019 a 17:21</t>
   </si>
   <si>
-    <t>A causa de dolores constantes en articulaciones del hombro no pude llevar a mi nieto en brazos cuando el mismo nació. Me sentía tan desamparada. Luego una amiga me contó sobre esta crema recomendada por el doctor Drauzio dijo que ayuda en caso de estos dolores, decidí probarla, y vi que realmente ayuda. Ya una semana mas tarde pude llevar a mi nieto en brazos. ¡El momento más feliz de mi vida!</t>
+    <t>A causa de dolores constantes en articulaciones del hombro no pude llevar a mi nieto en brazos cuando el mismo nació. Me sentía tan desamparada. Luego una amiga me contó sobre esta crema recomendada por el doctor Artesanos dijo que ayuda en caso de estos dolores, decidí probarla, y vi que realmente ayuda. Ya una semana mas tarde pude llevar a mi nieto en brazos. ¡El momento más feliz de mi vida!</t>
   </si>
   <si>
     <t>Martina:</t>
@@ -424,10 +424,10 @@
     <t>Es un milagro, Absolue Flex superó todas mis esperanzas, lo entregaron rápido, ya no tengo más dolores, todo corresponde a lo prometido. Ya no me duelen más las articulaciones de rodilla porque en el trabajo paso mucho tiempo de pie. Me gustó todo, y el servicio es perfecto.</t>
   </si>
   <si>
-    <t>Sobre el autor: Drauzio Varella</t>
-  </si>
-  <si>
-    <t>Drauzio Varella es oncólogo y escritor. Uno de los pioneros de tratamiento del SIDA en Brasil. Entre sus bestsellers: Estación Carandiru, A dos dedos, y El médico enfermo.</t>
+    <t>Sobre el autor: Joaquin Artesanos</t>
+  </si>
+  <si>
+    <t>Joaquin Artesanos es oncólogo y escritor. Uno de los pioneros de tratamiento del SIDA en España.</t>
   </si>
   <si>
     <t>Sitio web socio con UOL Viva Bem</t>
@@ -439,7 +439,7 @@
     <t>Requisitos de uso</t>
   </si>
   <si>
-    <t>Política de privacidad</t>
+    <t xml:space="preserve">Privacy policy </t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;
@@ -966,23 +966,26 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -992,7 +995,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,13 +1004,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF9A9A9A"/>
@@ -1026,29 +1049,53 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1287,22 +1334,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1317,7 +1364,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1342,27 +1389,27 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1382,12 +1429,12 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1412,12 +1459,12 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1427,7 +1474,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1437,7 +1484,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1452,7 +1499,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1467,7 +1514,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1477,7 +1524,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1512,7 +1559,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1527,12 +1574,12 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1552,32 +1599,32 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1617,7 +1664,7 @@
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1637,27 +1684,27 @@
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1667,12 +1714,12 @@
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1682,7 +1729,7 @@
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1692,7 +1739,7 @@
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1702,12 +1749,12 @@
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1717,22 +1764,22 @@
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1742,7 +1789,7 @@
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1752,17 +1799,17 @@
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="5" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1777,12 +1824,12 @@
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1792,12 +1839,12 @@
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1807,12 +1854,12 @@
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1822,12 +1869,12 @@
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1837,12 +1884,12 @@
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1852,7 +1899,7 @@
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1862,7 +1909,7 @@
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1872,12 +1919,12 @@
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1887,27 +1934,27 @@
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="5" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1917,12 +1964,12 @@
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="5" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1932,12 +1979,12 @@
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1962,37 +2009,37 @@
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2017,7 +2064,7 @@
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2027,7 +2074,7 @@
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2892,67 +2939,67 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="14" t="s">
         <v>153</v>
       </c>
     </row>
